--- a/archivos/gestion_cobranzas.xlsx
+++ b/archivos/gestion_cobranzas.xlsx
@@ -1,40 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cobranzas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Factura Nº</t>
+  </si>
+  <si>
+    <t>Fecha Emisión</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Vencimiento</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>📌 Instrucciones</t>
+  </si>
+  <si>
+    <t>1. Ingresá los importes y pagos realizados.</t>
+  </si>
+  <si>
+    <t>2. El saldo se calcula solo.</t>
+  </si>
+  <si>
+    <t>3. El estado indica si está pagado, parcial o pendiente.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,105 +103,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaDatos" displayName="TablaDatos" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Cliente"/>
-    <tableColumn id="2" name="Fecha Factura"/>
-    <tableColumn id="3" name="Importe"/>
-    <tableColumn id="4" name="Pagado"/>
-    <tableColumn id="5" name="Saldo"/>
-    <tableColumn id="6" name="Vencimiento"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -182,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,107 +437,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Fecha Factura</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Importe</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pagado</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Vencimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Juan Pérez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ana López</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-10</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-10</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F33" si="0">D2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="1">IF(D2=E2,"Pagado",IF(E2=0,"Pendiente","Parcial"))</f>
+        <v>Pagado</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:F65" si="2">D34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ref="H34:H65" si="3">IF(D34=E34,"Pagado",IF(E34=0,"Pendiente","Parcial"))</f>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="3"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <f t="shared" ref="F66:F97" si="4">D66-E66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H101" si="5">IF(D66=E66,"Pagado",IF(E66=0,"Pendiente","Parcial"))</f>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
+        <f t="shared" ref="F98:F129" si="6">D98-E98</f>
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="5"/>
+        <v>Pagado</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>